--- a/2_Convection/Embedded_Qs/fins.xlsx
+++ b/2_Convection/Embedded_Qs/fins.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ENGR_321\Images_Data_Embedded_Qs\Convection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_321\Notebooks\2_Convection\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C653CE-B618-46B6-BD89-B05761137A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Correct</t>
   </si>
@@ -94,9 +93,6 @@
     <t>A larger "P/A" ratio implies that the fin is shorter; the shorter fin will be hotter, and so will loss a lot of energy through convection</t>
   </si>
   <si>
-    <t>What happens to the temperature field if "hP/kA" approaches zero?</t>
-  </si>
-  <si>
     <t>The fin will have a constant temperature (the same temperature as the base)</t>
   </si>
   <si>
@@ -156,11 +152,17 @@
   <si>
     <t>Be sure to find the area of the full fin to get the ideal heat transfer</t>
   </si>
+  <si>
+    <t>What happens to the temperature field if "hP/kA" approaches zero?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>A value of 0 suggests that "k" is much bigger than "h" (since P/A cannot really approach zero).  This would mean that the internal material of the fin could replace lost energy near the tip much faster than the fluid could remove it.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -511,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -582,7 +584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -662,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,9 +680,9 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -689,17 +691,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -707,18 +712,18 @@
     </row>
     <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -730,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -748,7 +753,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -767,7 +772,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,7 +784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -796,12 +801,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -809,18 +814,18 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -832,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -849,7 +854,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -868,17 +873,17 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -887,10 +892,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -905,7 +910,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -924,24 +929,24 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9F1F27-F038-4CC7-8C3C-DFC3979A1D6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2_Convection/Embedded_Qs/fins.xlsx
+++ b/2_Convection/Embedded_Qs/fins.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_321\Notebooks\2_Convection\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\2_Convection\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C51F50-8AE1-4A0A-9FAD-0B6ED5DB292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="255" windowWidth="18480" windowHeight="14700" activeTab="2"/>
+    <workbookView xWindow="1155" yWindow="1455" windowWidth="17700" windowHeight="13260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Correct</t>
   </si>
@@ -108,12 +109,6 @@
     <t>Yep!  The simplified equation would set the second derivative to zero, which suggests that there is no curvature in the temperature field.  The slope of the field would be determined by the boundary conditions.  Note, though, that in this case, the assumptions of the fin equation are not very valid.</t>
   </si>
   <si>
-    <t>An adiabatic (no flux) BC at the tip suggests that flux through the tip is insignificant: that is, all of the thermal energy that enters the fin leaves through the sides.  Think about what the temperature field would look like in this case, and determine the "flux_base" that leads to this condition.  Answer as a multiple of 10^5 W/m2.</t>
-  </si>
-  <si>
-    <t>Your answer should have 3 decimal points, and be between 1 and 10.</t>
-  </si>
-  <si>
     <t>The flux through the base will be less than through an unattached fin because the fin will be losing less thermal energy.</t>
   </si>
   <si>
@@ -123,9 +118,6 @@
     <t>The flux through the base will be more than through an unattached fin because the fin will be hotter.</t>
   </si>
   <si>
-    <t>Imagine that the second BC is a set temperature at the tip of the fin (so that the fin might be connected to two heated objects, one on each end of the fin).  Find the flux value that will give you a tip temperature of 75 degrees.  What is true about the flux?  Guess first, and then test your answer with the simulation</t>
-  </si>
-  <si>
     <t>Yep!  The fin will be hotter because both ends of the fin will be held at a high temperature.  It will also lose *more* total thermal energy because of its higher temperature (and the fact that the convection conditions have not changed).  But there will be a flux of energy into the fin from both ends, and so the flux from the base will actually be lower.</t>
   </si>
   <si>
@@ -141,9 +133,6 @@
     <t>Use the convection rate equation to find the HT through the base if the fin was not there.</t>
   </si>
   <si>
-    <t>Answer should be above 2.0, but likely not above 10.0 or so.</t>
-  </si>
-  <si>
     <t>Answer should be between 0 and 1.0</t>
   </si>
   <si>
@@ -158,11 +147,32 @@
   <si>
     <t>A value of 0 suggests that "k" is much bigger than "h" (since P/A cannot really approach zero).  This would mean that the internal material of the fin could replace lost energy near the tip much faster than the fluid could remove it.</t>
   </si>
+  <si>
+    <t>Your answer should have 2 decimal points, and be between 1 and 10.</t>
+  </si>
+  <si>
+    <t>Imagine that the second BC is a set temperature at the tip of the fin (so that the fin would be connected to two heated objects, one on each end of the fin, with cooler fluid in-between).  Find the flux value that will give you a tip temperature of 75 degrees.  What is true about the flux?  Guess first, and then test your answer with the simulation</t>
+  </si>
+  <si>
+    <t>If there is no flux through the end of the fin, what is the value of dT/dx at the end of the fin?</t>
+  </si>
+  <si>
+    <t>An adiabatic (no flux) BC at the tip suggests that flux through the tip *in the x-direction* is insignificant: that is, all of the thermal energy that enters the fin leaves through the sides.  Think about what the temperature field would look like in this case, and determine the "flux_base" that leads to this condition.  Answer as a multiple of 10^5 W/m2, accurate to 2 decimal places</t>
+  </si>
+  <si>
+    <t>Remember to find the heat transfer rate through the base, not just the flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer should be above 2.0, but likely not above 100.0 </t>
+  </si>
+  <si>
+    <t>Make sure the last simulation you ran was the adiabatic example</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -584,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -664,10 +674,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -682,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -699,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -735,25 +745,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -764,16 +772,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>6.3479999999999999</v>
+        <v>1.115</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -784,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,14 +815,14 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -814,18 +830,18 @@
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -837,11 +853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -865,25 +881,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>8.4640000000000004</v>
+        <v>29.73</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -892,11 +913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +931,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -921,32 +942,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.20599999999999999</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2_Convection/Embedded_Qs/fins.xlsx
+++ b/2_Convection/Embedded_Qs/fins.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\2_Convection\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\Engr_321\Notebooks_Engr321\2_Convection\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C51F50-8AE1-4A0A-9FAD-0B6ED5DB292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1455" windowWidth="17700" windowHeight="13260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1158" yWindow="1458" windowWidth="17700" windowHeight="13260" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -172,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,23 +522,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.26171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -550,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -561,7 +560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -569,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -577,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -585,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -594,23 +593,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.26171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -621,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -632,7 +631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -643,7 +642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -654,7 +653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -665,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2"/>
     </row>
   </sheetData>
@@ -674,23 +673,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.26171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -701,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -712,7 +711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -720,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -731,7 +730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -745,21 +744,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="53.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="53.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -770,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1.115</v>
       </c>
@@ -778,20 +777,20 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2"/>
     </row>
   </sheetData>
@@ -800,27 +799,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.15625" style="1"/>
     <col min="3" max="3" width="72" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -828,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -839,7 +838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -853,22 +852,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="36.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83984375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -879,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>29.73</v>
       </c>
@@ -887,22 +886,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
@@ -913,23 +912,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="41" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="25.578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -940,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0.72499999999999998</v>
       </c>
@@ -948,29 +947,29 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -979,14 +978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_Convection/Embedded_Qs/fins.xlsx
+++ b/2_Convection/Embedded_Qs/fins.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\Engr_321\Notebooks_Engr321\2_Convection\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB13E978-9DC4-4739-9778-368B0AB40332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1158" yWindow="1458" windowWidth="17700" windowHeight="13260" activeTab="5"/>
+    <workbookView xWindow="12540" yWindow="660" windowWidth="15210" windowHeight="14190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -69,9 +70,6 @@
     <t>Yep!  If convection removes energy efficiently along the length of the fin, less of that energy will reach the tip.   The larger second derivative will mean the temperature field will "curve" a lot near the base as the fin temperature quickly approaches the bulk fluid temperature.</t>
   </si>
   <si>
-    <t>A large second derivative implies a "cooler" fin tip.  A large  "P/A" ratio increases the size of the derivative in the fin equation.  Why is this true, in physical terms? (Mark all that are true)</t>
-  </si>
-  <si>
     <t>Nope.  Both "P" and "A" refer to the cross-section of the fin, and so have nothing to do with length.</t>
   </si>
   <si>
@@ -156,9 +154,6 @@
     <t>If there is no flux through the end of the fin, what is the value of dT/dx at the end of the fin?</t>
   </si>
   <si>
-    <t>An adiabatic (no flux) BC at the tip suggests that flux through the tip *in the x-direction* is insignificant: that is, all of the thermal energy that enters the fin leaves through the sides.  Think about what the temperature field would look like in this case, and determine the "flux_base" that leads to this condition.  Answer as a multiple of 10^5 W/m2, accurate to 2 decimal places</t>
-  </si>
-  <si>
     <t>Remember to find the heat transfer rate through the base, not just the flux</t>
   </si>
   <si>
@@ -167,11 +162,17 @@
   <si>
     <t>Make sure the last simulation you ran was the adiabatic example</t>
   </si>
+  <si>
+    <t>A large second derivative implies a "cooler" fin tip.  A large  "P/A" ratio increases the size of the derivative in the fin equation.  Why is this true, in physical terms?  Remember that "A" is the cross-sectional area and not the surface area (Mark all that are true)</t>
+  </si>
+  <si>
+    <t>An adiabatic (no flux) BC at the tip suggests that flux through the tip *in the x-direction* is insignificant: that is, all of the thermal energy that enters the fin leaves through the sides.  Think about what the temperature field would look like in this case (what would dT/dx be?), and determine the "flux_base" that leads to this condition.  Answer as a multiple of 10^5 W/m2, accurate to 2 decimal places</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,23 +523,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26171875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -549,7 +550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -560,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -568,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -576,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -584,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -593,25 +594,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26171875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -620,51 +621,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
   </sheetData>
@@ -673,25 +674,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26171875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -700,39 +701,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -744,23 +745,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="53.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -769,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1.115</v>
       </c>
@@ -777,20 +780,20 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
   </sheetData>
@@ -799,48 +802,48 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.15625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="72" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -852,24 +855,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.41796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.83984375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -878,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>29.73</v>
       </c>
@@ -886,24 +889,24 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -912,25 +915,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26171875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -939,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.72499999999999998</v>
       </c>
@@ -947,29 +950,29 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -978,14 +981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
